--- a/Resource/TestCase.xlsx
+++ b/Resource/TestCase.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0594D49-884D-40DB-A200-BCBE349AD02E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -409,13 +410,21 @@
   <si>
     <t>END</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性，易用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,49 +553,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,7 +663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,9 +695,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,6 +747,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,25 +940,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.21875" customWidth="1"/>
-    <col min="8" max="8" width="49.88671875" customWidth="1"/>
+    <col min="2" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" customWidth="1"/>
+    <col min="9" max="9" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2">
+    <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,1280 +966,1407 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2">
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4" t="s">
+    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2">
+    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4" t="s">
+    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2">
+    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4" t="s">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
+    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4" t="s">
+    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2">
+    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4" t="s">
+    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.2">
+    <row r="18" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9" t="s">
+    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.2">
+    <row r="21" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9" t="s">
+    <row r="22" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.2">
+    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="46.8">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="9" t="s">
+    <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.2">
+    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="9" t="s">
+    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.2">
+    <row r="30" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="31.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9" t="s">
+    <row r="31" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="31.2">
+    <row r="33" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="31.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="9" t="s">
+    <row r="34" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="31.2">
+    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="31.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="9" t="s">
+    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="31.2">
+    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="31.2">
+    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9" t="s">
+    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="31.2">
+    <row r="44" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="31.2">
+    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="9" t="s">
+    <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="I46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="31.2">
+    <row r="48" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I48" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="31.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="9" t="s">
+    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="I49" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.2">
+    <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="I51" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="9" t="s">
+    <row r="52" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="I52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="I53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2">
+    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I54" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="62.4">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="9" t="s">
+    <row r="55" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="I55" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="I56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2">
+    <row r="57" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="5"/>
+      <c r="H57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="I57" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="62.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="9" t="s">
+    <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="I58" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="I59" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="31.2">
+    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="I60" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="62.4">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="9" t="s">
+    <row r="61" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="H62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="I62" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="31.2">
+    <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="31.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="9" t="s">
+    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="I64" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="140">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="F59:F61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2177,12 +2375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2191,12 +2389,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/TestCase.xlsx
+++ b/Resource/TestCase.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0594D49-884D-40DB-A200-BCBE349AD02E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BEB05F-A9CF-4B0F-85DF-3FA9CA091F57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -417,6 +417,38 @@
   </si>
   <si>
     <t>功能性，易用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口人登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,1278 +973,1490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="43.21875" customWidth="1"/>
-    <col min="9" max="9" width="49.88671875" customWidth="1"/>
+    <col min="1" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.21875" customWidth="1"/>
+    <col min="11" max="11" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="2" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="2" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>127</v>
       </c>
@@ -2224,149 +2468,191 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="180">
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
